--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1948461.171207471</v>
+        <v>-1951376.768299797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10077562.50365404</v>
+        <v>10077562.50365403</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15503630.02720907</v>
+        <v>15503630.02720908</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>249.2819505385571</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>160.4034471042927</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>22.11041309544157</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.05432859461018</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>111.8978324371517</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>2.660219339389182</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>66.17512620685336</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>381.9201868676491</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>285.2632045289868</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.465802816548228</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>89.83938363460548</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>282.0260476272029</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>347.7039243400708</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.83229124987108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>4.467215483525514</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569552</v>
+        <v>83.70251495695562</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128554</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>78.91051008678282</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856548</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012159</v>
+        <v>66.37524671012197</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>181.255766896981</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S19" t="n">
-        <v>45.17596778975079</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>127.6210071331156</v>
       </c>
     </row>
     <row r="20">
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695567</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>167.7243167060778</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>120.7871326503972</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>625.3727659270879</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C2" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.312047941846</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y2" t="n">
-        <v>877.1727159660345</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>705.7952336049783</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>557.6485750391623</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="6">
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>543.7934291343875</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782189</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468206</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468206</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468206</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>725.4418939646272</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>725.4418939646272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1369.416431066817</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C8" t="n">
-        <v>1369.416431066817</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D8" t="n">
-        <v>1011.150732460067</v>
+        <v>516.422513675268</v>
       </c>
       <c r="E8" t="n">
-        <v>1011.150732460067</v>
+        <v>516.422513675268</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>509.4770129260645</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>495.5536088646554</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y8" t="n">
-        <v>1369.416431066817</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.4233909876363</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>224.4233909876363</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876363</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876363</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.4233909876363</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2316.676938649613</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1947.714421709201</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1589.44872310245</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1203.660470504206</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>792.6745657145987</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>378.6914586310051</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J11" t="n">
         <v>373.3125385470848</v>
@@ -5045,46 +5045,46 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3652.861230428502</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4201.16717911585</v>
       </c>
       <c r="Q11" t="n">
-        <v>4564.749365221855</v>
+        <v>4564.749365221856</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4605.365889165442</v>
+        <v>4605.365889165443</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.156740844761</v>
+        <v>4404.156740844762</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.71341156431</v>
+        <v>4150.713411564311</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.650524220739</v>
+        <v>3819.65052422074</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3466.881868950626</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689546</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713735</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.6894541647543</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>241.4646447998178</v>
@@ -5127,19 +5127,19 @@
         <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1062.705720206928</v>
+        <v>1654.724074459055</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.759402180614</v>
+        <v>1868.309672946898</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.635877180809</v>
+        <v>1868.309672946898</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.219395606885</v>
+        <v>2287.893191372974</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R12" t="n">
         <v>2553.780669592131</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4475540177689</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="C13" t="n">
-        <v>633.4475540177689</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="D13" t="n">
-        <v>633.4475540177689</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5344604353758</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5344604353758</v>
+        <v>348.1740823460542</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3202656099546</v>
+        <v>180.9598875206331</v>
       </c>
       <c r="H13" t="n">
-        <v>176.447548648385</v>
+        <v>176.4475486483851</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>172.7987859375258</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4275129080894</v>
+        <v>432.4275129080895</v>
       </c>
       <c r="L13" t="n">
         <v>820.1893309912236</v>
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192612</v>
+        <v>95.34095638192541</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111697</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075818</v>
+        <v>852.8523611075965</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.6115533324</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301479</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355945</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.422291068016</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,40 +5340,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273879</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756268</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468478</v>
+        <v>579.1554649516121</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962607</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951536</v>
+        <v>1702.079034721974</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685892</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171324</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892255</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038331</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797722</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279797</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853355</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580254</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831767</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.30283062588</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.88566058892</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690902</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473721</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111873</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075949</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014789</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,37 +5577,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517213</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S19" t="n">
-        <v>2334.285089135946</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="T19" t="n">
-        <v>2334.285089135946</v>
+        <v>2160.315914855598</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.209862480144</v>
+        <v>1871.240688199796</v>
       </c>
       <c r="V19" t="n">
-        <v>1790.525374274257</v>
+        <v>1616.556199993909</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956948</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956948</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819414</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111862</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075948</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332399</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014788</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,37 +5814,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>427.7414352191914</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349486</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061499</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190827</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>929.7309773356197</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>779.614337923284</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>631.7012443408909</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855598</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199796</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993909</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956948</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>1099.149479058931</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>1099.149479058931</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>923.0670414349513</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190824</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277359</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8238677453428</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,7 +6242,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1520.445529061503</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6364,31 +6364,31 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
         <v>1896.176478190825</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6877,19 +6877,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,49 +7096,49 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,10 +7345,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.265941231132</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
         <v>2319.799627685893</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384024</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>49.74439522492776</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.955413608811796e-11</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-3.152674862310831e-12</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.750777300912887e-11</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.4518911249235</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>65.30933064276238</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>64.54993033874328</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7.012336859472729</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>92.71246049576315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.537044377341431</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9996889320662</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.9867743084284</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>69.70496293142953</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856573</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,16 +23704,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>105.26723143961</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.8503182118938</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>90.96364621897915</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>12.10766347585951</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>24.63391537253403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1336061.497243597</v>
+        <v>1336061.497243596</v>
       </c>
     </row>
     <row r="9">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64980.41945326156</v>
+        <v>64980.41945326162</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642831</v>
+        <v>82104.1769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>80656.06283861227</v>
+        <v>80656.0628386123</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900058</v>
@@ -26329,19 +26329,19 @@
         <v>80714.65996900058</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="J2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="K2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="K2" t="n">
-        <v>82104.17698642837</v>
-      </c>
       <c r="L2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642841</v>
       </c>
       <c r="M2" t="n">
         <v>82104.17698642841</v>
@@ -26350,10 +26350,10 @@
         <v>82104.17698642841</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.1769864284</v>
+        <v>82104.17698642836</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>936391.4095185975</v>
       </c>
       <c r="F3" t="n">
-        <v>7852.637614951788</v>
+        <v>7852.637614948014</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.615646508274949e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862247</v>
+        <v>195850.9371862246</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103327.7358282893</v>
+        <v>103327.7358282896</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.93888671817</v>
+        <v>5759.938886718184</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670369</v>
+        <v>5067.592601670709</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670415</v>
+        <v>5067.592601670682</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670403</v>
+        <v>5067.592601670392</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>13058.4518647639</v>
+        <v>13058.45186476391</v>
       </c>
       <c r="K4" t="n">
         <v>13058.4518647639</v>
       </c>
       <c r="L4" t="n">
-        <v>13058.45186476389</v>
+        <v>13058.4518647639</v>
       </c>
       <c r="M4" t="n">
         <v>13058.45186476391</v>
       </c>
       <c r="N4" t="n">
+        <v>13058.45186476389</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="P4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.45186476392</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>100905.9587784758</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-711174.2736529816</v>
+        <v>-711602.367591311</v>
       </c>
       <c r="C6" t="n">
         <v>-201819.4070047127</v>
       </c>
       <c r="D6" t="n">
-        <v>-201819.4070047127</v>
+        <v>-201819.4070047126</v>
       </c>
       <c r="E6" t="n">
-        <v>-962401.2443451793</v>
+        <v>-962437.4471988747</v>
       </c>
       <c r="F6" t="n">
-        <v>-33328.10007152872</v>
+        <v>-33362.83799696088</v>
       </c>
       <c r="G6" t="n">
-        <v>-25475.46245657696</v>
+        <v>-25510.20038201284</v>
       </c>
       <c r="H6" t="n">
-        <v>-25475.46245657693</v>
+        <v>-25510.20038201244</v>
       </c>
       <c r="I6" t="n">
-        <v>-25475.46245657692</v>
+        <v>-25510.20038201525</v>
       </c>
       <c r="J6" t="n">
         <v>-229969.3279184756</v>
       </c>
       <c r="K6" t="n">
-        <v>-34118.39073225093</v>
+        <v>-34118.3907322509</v>
       </c>
       <c r="L6" t="n">
-        <v>-34118.39073225092</v>
+        <v>-34118.39073225089</v>
       </c>
       <c r="M6" t="n">
         <v>-158326.9014403094</v>
       </c>
       <c r="N6" t="n">
-        <v>-34118.3907322509</v>
+        <v>-34118.39073225087</v>
       </c>
       <c r="O6" t="n">
-        <v>-53546.10872588268</v>
+        <v>-53546.1087258827</v>
       </c>
       <c r="P6" t="n">
-        <v>-34118.3907322509</v>
+        <v>-34118.39073225096</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26707,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="K2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203969</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.97550034167</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992989</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625289284</v>
+        <v>9.93445162528451</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>258.6134421215947</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>144.777723235433</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>286.6795130688704</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.3401062189018</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.46253061552511</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>220.3478721297377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>24.95585887406236</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>38.65956823537033</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>147.1496702016641</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>56.82580834555237</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31847,13 +31847,13 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688754</v>
+        <v>347.0847408589324</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982453</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
         <v>54.2575834086216</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348438</v>
+        <v>5.499398996348418</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135345</v>
+        <v>56.32071997135326</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663287</v>
+        <v>466.754615566327</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817557</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162568</v>
+        <v>867.8464071162538</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175683</v>
+        <v>965.646344017565</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159433</v>
+        <v>981.2715114159399</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460035</v>
+        <v>926.5868626460003</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236514</v>
+        <v>790.8204499236487</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669227</v>
+        <v>593.8732233669207</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043716</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T14" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651521</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078749</v>
+        <v>0.4399519197078734</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659452</v>
+        <v>2.942437868659442</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521103</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007746</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422573</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473078</v>
+        <v>638.8832749473055</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145748</v>
+        <v>765.2790490071765</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437249</v>
+        <v>338.6542681503566</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214702</v>
+        <v>561.8765786214683</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485293</v>
+        <v>375.599612848528</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742443</v>
+        <v>54.65449286742424</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275949</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189897</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121572</v>
+        <v>21.93245966121564</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869281</v>
+        <v>74.18463860869255</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K16" t="n">
-        <v>286.602080235518</v>
+        <v>286.602080235517</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588143</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392035</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106792</v>
+        <v>377.4939606106778</v>
       </c>
       <c r="O16" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920048</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417317</v>
+        <v>298.3532140417307</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515922</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S16" t="n">
-        <v>42.9903120353277</v>
+        <v>42.99031203532755</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099319</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>340.4395077511221</v>
+        <v>369.1789913100073</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>510.8679233250787</v>
       </c>
       <c r="O21" t="n">
-        <v>370.9642309107737</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214685</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485282</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>491.5977325265315</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>522.1224556861836</v>
+        <v>338.6542681503479</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>555.0107214892114</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>491.597732526532</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,16 +34217,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>663.4727207607269</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35422,7 +35422,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>739.5040280119362</v>
       </c>
       <c r="P11" t="n">
         <v>553.8443926134828</v>
@@ -35495,13 +35495,13 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855421</v>
+        <v>215.7430287755991</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839151</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317426</v>
+        <v>1.539690236316687</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396424</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367947</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462697</v>
+        <v>632.0799921462665</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902955</v>
+        <v>735.3001107902923</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193525</v>
+        <v>751.8584478193491</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243168</v>
+        <v>696.4886512243136</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683791</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924683</v>
+        <v>371.5675334924712</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902407</v>
+        <v>129.8660843902395</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774645</v>
       </c>
       <c r="J15" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496679</v>
+        <v>337.2977496678983</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674336</v>
+        <v>500.3288951674313</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312415</v>
+        <v>633.9373369238432</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992804</v>
+        <v>196.0580237059122</v>
       </c>
       <c r="P15" t="n">
-        <v>427.90217120714</v>
+        <v>427.9021712071381</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625078</v>
+        <v>235.6178387625065</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295353</v>
+        <v>81.0464832629529</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096341</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191305</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010441</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899078</v>
+        <v>421.6261329899064</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.6317733066242</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998978</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396584</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243139</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8432633066776</v>
+        <v>226.5827468655629</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193496</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>379.5262112417453</v>
       </c>
       <c r="O21" t="n">
-        <v>228.3679864663293</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071383</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625067</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,13 +36443,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>349.0014880820871</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>379.5262112417391</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>423.6690094058781</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
         <v>288.6172359016746</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>349.0014880820875</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,16 +37865,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>520.8764763162825</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
